--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail11 Features.xlsx
@@ -5494,7 +5494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5505,29 +5505,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5548,115 +5546,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5673,72 +5661,66 @@
         <v>3.930972136249572e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.924286809437285</v>
+        <v>2.728837866109881e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16.30058122621362</v>
+        <v>4.302509548345084e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.728837866109881e-06</v>
+        <v>-0.1066303456381709</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.302509548345084e-06</v>
+        <v>0.3492079223064827</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1066303456381709</v>
+        <v>0.1329892927018909</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3492079223064827</v>
+        <v>1.599317380469542</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1329892927018909</v>
+        <v>1.346941598211251</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.626598361583838</v>
+        <v>19.93893737745865</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.346941598211251</v>
+        <v>6.717425911574805e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>19.93893737745865</v>
+        <v>186188969.89125</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.717425911574805e-14</v>
+        <v>5.708313572651861e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>186188969.89125</v>
+        <v>2328.685202563316</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.708313572651861e-07</v>
+        <v>4.43085374212731e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2328.685202563316</v>
+        <v>9.120517327809184</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.43085374212731e-05</v>
+        <v>1.292591225697588</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.120517327809184</v>
+        <v>0.003685754124734069</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.292591225697588</v>
+        <v>6.531081629952886</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003685754124734069</v>
+        <v>0.9404171988024645</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.531081629952886</v>
+        <v>0.9624451146752415</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9404171988024645</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9624451146752415</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>5.151651030961391</v>
       </c>
     </row>
@@ -5753,72 +5735,66 @@
         <v>2.788530642078674e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.839305810812711</v>
+        <v>1.964427054622869e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.98355095572755</v>
+        <v>4.267283768176111e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.964427054622869e-06</v>
+        <v>-0.1051190996979585</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.267283768176111e-06</v>
+        <v>0.3567857342397759</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1051190996979585</v>
+        <v>0.1379963556044338</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3567857342397759</v>
+        <v>1.602692848271581</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1379963556044338</v>
+        <v>1.241851230505627</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.61119151059029</v>
+        <v>23.87029858634001</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.241851230505627</v>
+        <v>4.68695950128137e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>23.87029858634001</v>
+        <v>195022171.8653595</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.68695950128137e-14</v>
+        <v>5.445085548999586e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>195022171.8653595</v>
+        <v>1782.621656079472</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.445085548999586e-07</v>
+        <v>6.559899917640098e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1782.621656079472</v>
+        <v>10.46594637232369</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.559899917640098e-05</v>
+        <v>1.181837953000066</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.46594637232369</v>
+        <v>0.007185454169276882</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.181837953000066</v>
+        <v>5.902035338616618</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007185454169276882</v>
+        <v>0.9411775355666234</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.902035338616618</v>
+        <v>0.982404808493184</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9411775355666234</v>
+        <v>7</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.982404808493184</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.226391219731672</v>
       </c>
     </row>
@@ -5833,72 +5809,66 @@
         <v>1.983640166832807e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.614608418088111</v>
+        <v>1.410609071575645e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>14.85611973275553</v>
+        <v>4.242779112048652e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.410609071575645e-06</v>
+        <v>-0.1021832884821888</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.242779112048652e-06</v>
+        <v>0.3628067984763266</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1021832884821888</v>
+        <v>0.141709304367646</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3628067984763266</v>
+        <v>1.608490453492643</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.141709304367646</v>
+        <v>1.232869154023366</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.619445703867054</v>
+        <v>24.21706038022312</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.232869154023366</v>
+        <v>4.553696215148818e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>24.21706038022312</v>
+        <v>200721974.1876545</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.553696215148818e-14</v>
+        <v>5.290516949042891e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>200721974.1876545</v>
+        <v>1834.652826555065</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.290516949042891e-07</v>
+        <v>0.0001082062640044753</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1834.652826555065</v>
+        <v>10.69751955997792</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001082062640044753</v>
+        <v>1.179979151555546</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.69751955997792</v>
+        <v>0.01238279208985581</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.179979151555546</v>
+        <v>4.800784514779163</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01238279208985581</v>
+        <v>0.9448234260277659</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.800784514779163</v>
+        <v>0.9617798795182643</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9448234260277659</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9617798795182643</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.53345617000333</v>
       </c>
     </row>
@@ -5913,72 +5883,66 @@
         <v>1.431769043806087e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.16003555420128</v>
+        <v>1.013014789721634e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12.48988620220877</v>
+        <v>4.22592722268783e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.013014789721634e-06</v>
+        <v>-0.09682714548531665</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.22592722268783e-06</v>
+        <v>0.3651945674957825</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09682714548531665</v>
+        <v>0.1423925367335575</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3651945674957825</v>
+        <v>1.610224737232013</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1423925367335575</v>
+        <v>1.228588784246335</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.622713573333627</v>
+        <v>25.61246074972371</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.228588784246335</v>
+        <v>4.071029900751022e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>25.61246074972371</v>
+        <v>224514164.0343854</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.071029900751022e-14</v>
+        <v>4.729865676261293e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>224514164.0343854</v>
+        <v>2052.068159032229</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.729865676261293e-07</v>
+        <v>0.0001580194335371409</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2052.068159032229</v>
+        <v>9.379040012432316</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001580194335371409</v>
+        <v>1.456860708291443</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.379040012432316</v>
+        <v>0.01390039936379684</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.456860708291443</v>
+        <v>3.766079161185663</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01390039936379684</v>
+        <v>0.9445314140527542</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.766079161185663</v>
+        <v>0.9556954845280601</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9445314140527542</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9556954845280601</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.9255811128744794</v>
       </c>
     </row>
@@ -5993,72 +5957,66 @@
         <v>1.066863133403325e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.40806793904508</v>
+        <v>7.34747151127805e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8.773074012390438</v>
+        <v>4.214425941478346e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.34747151127805e-07</v>
+        <v>-0.08870160461837534</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.214425941478346e-06</v>
+        <v>0.3667573361131295</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.08870160461837534</v>
+        <v>0.1420776347837435</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3667573361131295</v>
+        <v>1.637591440581963</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1420776347837435</v>
+        <v>1.230771415605116</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.657933974283415</v>
+        <v>27.04503501309654</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.230771415605116</v>
+        <v>3.651167927742655e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>27.04503501309654</v>
+        <v>241692575.3433241</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.651167927742655e-14</v>
+        <v>4.394096593454387e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>241692575.3433241</v>
+        <v>2132.840734133281</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.394096593454387e-07</v>
+        <v>0.0001263054593849325</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2132.840734133281</v>
+        <v>9.133577326637264</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001263054593849325</v>
+        <v>1.378739455916871</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.133577326637264</v>
+        <v>0.01053668368701555</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.378739455916871</v>
+        <v>4.084718437197846</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01053668368701555</v>
+        <v>0.9487493951157431</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.084718437197846</v>
+        <v>0.9002172628607636</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9487493951157431</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9002172628607636</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.9731627526064763</v>
       </c>
     </row>
@@ -6073,72 +6031,66 @@
         <v>8.352727237449173e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.397795685447087</v>
+        <v>5.39228726529787e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.153959503908887</v>
+        <v>4.206569727629957e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.39228726529787e-07</v>
+        <v>-0.07715831990037793</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.206569727629957e-06</v>
+        <v>0.3667735790310114</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07715831990037793</v>
+        <v>0.1402140130259372</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3667735790310114</v>
+        <v>1.696860947484854</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1402140130259372</v>
+        <v>1.322725153356703</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.650722689431375</v>
+        <v>8.362679039472043</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.322725153356703</v>
+        <v>1.998628796335825e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.362679039472043</v>
+        <v>119399812.0212945</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.998628796335825e-14</v>
+        <v>8.898162320646875e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>119399812.0212945</v>
+        <v>284.9308190992346</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.898162320646875e-07</v>
+        <v>0.0001013539646913123</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>284.9308190992346</v>
+        <v>10.3340413676354</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001013539646913123</v>
+        <v>1.159783114695445</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.3340413676354</v>
+        <v>0.01082383425257784</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.159783114695445</v>
+        <v>4.315435925409104</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01082383425257784</v>
+        <v>0.9507545330548441</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.315435925409104</v>
+        <v>1.26034187708408</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9507545330548441</v>
+        <v>49</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.26034187708408</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.275459108275404</v>
       </c>
     </row>
@@ -6153,72 +6105,66 @@
         <v>7.018446914092422e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4761289820444247</v>
+        <v>3.927477326031141e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.5775603869511521</v>
+        <v>4.201296573924214e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.927477326031141e-07</v>
+        <v>-0.06026118972760609</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.201296573924214e-06</v>
+        <v>0.3503644040432631</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06026118972760609</v>
+        <v>0.1261725969050513</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3503644040432631</v>
+        <v>1.713607195420854</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1261725969050513</v>
+        <v>1.352143907602135</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.674957415012297</v>
+        <v>8.527927860669244</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.352143907602135</v>
+        <v>1.921922903507822e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.527927860669244</v>
+        <v>124095438.0024268</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.921922903507822e-14</v>
+        <v>8.561806533741954e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>124095438.0024268</v>
+        <v>295.969933417193</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.561806533741954e-07</v>
+        <v>0.0001030363827663037</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>295.969933417193</v>
+        <v>10.43921898733251</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001030363827663037</v>
+        <v>1.137044434664966</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.43921898733251</v>
+        <v>0.01122862608113082</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.137044434664966</v>
+        <v>4.28200958174263</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01122862608113082</v>
+        <v>0.9528660556079999</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.28200958174263</v>
+        <v>1.141481043544286</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9528660556079999</v>
+        <v>46</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.141481043544286</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.251605275988214</v>
       </c>
     </row>
@@ -6233,72 +6179,66 @@
         <v>6.373141598049943e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.0177774751686185</v>
+        <v>2.843587970111018e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.6563051062211329</v>
+        <v>4.197925328678478e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.843587970111018e-07</v>
+        <v>-0.04119023922284828</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.197925328678478e-06</v>
+        <v>0.3215681382370171</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04119023922284828</v>
+        <v>0.1049704049080665</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3215681382370171</v>
+        <v>1.728804656740386</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1049704049080665</v>
+        <v>1.387264339234122</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.697969429281721</v>
+        <v>8.648678382451543</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.387264339234122</v>
+        <v>1.868630802339473e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.648678382451543</v>
+        <v>127572866.7628066</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.868630802339473e-14</v>
+        <v>8.329159852979585e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>127572866.7628066</v>
+        <v>304.1166047689702</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.329159852979585e-07</v>
+        <v>0.0001197348258921031</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>304.1166047689702</v>
+        <v>9.554205308387298</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001197348258921031</v>
+        <v>1.269775058980562</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.554205308387298</v>
+        <v>0.01092973484355996</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.269775058980562</v>
+        <v>4.129688365473826</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01092973484355996</v>
+        <v>0.9550820621292282</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.129688365473826</v>
+        <v>1.260413567605051</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9550820621292282</v>
+        <v>46</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.260413567605051</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.023861267658845</v>
       </c>
     </row>
@@ -6313,72 +6253,66 @@
         <v>6.1134772351406e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.08317526150280936</v>
+        <v>2.218224039572575e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7423613600071413</v>
+        <v>4.195877525141109e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.218224039572575e-07</v>
+        <v>-0.025569317216249</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.195877525141109e-06</v>
+        <v>0.2989081188753361</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.025569317216249</v>
+        <v>0.08994035474100245</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2989081188753361</v>
+        <v>1.726530376279579</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.08994035474100245</v>
+        <v>1.404390806417472</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.701390002897048</v>
+        <v>9.247050366996366</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.404390806417472</v>
+        <v>1.634619034528855e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.247050366996366</v>
+        <v>145770034.3809694</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.634619034528855e-14</v>
+        <v>7.288498344664718e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>145770034.3809694</v>
+        <v>347.338611814929</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.288498344664718e-07</v>
+        <v>0.000169995148195527</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>347.338611814929</v>
+        <v>8.914923422264213</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000169995148195527</v>
+        <v>1.673599552454887</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.914923422264213</v>
+        <v>0.01351051053489074</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.673599552454887</v>
+        <v>3.619861985576305</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01351051053489074</v>
+        <v>0.9574563979434921</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.619861985576305</v>
+        <v>1.25144822799947</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9574563979434921</v>
+        <v>46</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.25144822799947</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.674655055840198</v>
       </c>
     </row>
@@ -6393,72 +6327,66 @@
         <v>6.021356520527908e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.07022358636699425</v>
+        <v>2.218224039572575e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6717924643009461</v>
+        <v>4.194672633361413e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.218224039572575e-07</v>
+        <v>-0.01497387767586799</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.194672633361413e-06</v>
+        <v>0.2877363767363049</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01497387767586799</v>
+        <v>0.0829930098150828</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2877363767363049</v>
+        <v>1.725845883393824</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0829930098150828</v>
+        <v>1.413911233141193</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.699988778945789</v>
+        <v>10.61263378532644</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.413911233141193</v>
+        <v>1.241013888765936e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>10.61263378532644</v>
+        <v>191925740.0869365</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.241013888765936e-14</v>
+        <v>5.535505563752337e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>191925740.0869365</v>
+        <v>457.1335432702132</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.535505563752337e-07</v>
+        <v>0.0002138441552522758</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>457.1335432702132</v>
+        <v>9.513153080993218</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002138441552522758</v>
+        <v>1.565396481518543</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.513153080993218</v>
+        <v>0.0193529134876989</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.565396481518543</v>
+        <v>2.850761052104421</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0193529134876989</v>
+        <v>0.9586075171378067</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.850761052104421</v>
+        <v>1.175627469581964</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9586075171378067</v>
+        <v>46</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.175627469581964</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3148049956737884</v>
       </c>
     </row>
@@ -6473,72 +6401,66 @@
         <v>5.992204356855031e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.04596958817139932</v>
+        <v>2.218224039572575e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.6353881405336952</v>
+        <v>4.194013110875815e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.218224039572575e-07</v>
+        <v>-0.007292694975231181</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.194013110875815e-06</v>
+        <v>0.2824294206184695</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.007292694975231181</v>
+        <v>0.0798084854862577</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2824294206184695</v>
+        <v>1.738718161187121</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0798084854862577</v>
+        <v>1.431094941008829</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.763610893906482</v>
+        <v>14.45172767545761</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.431094941008829</v>
+        <v>6.692424179614127e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>14.45172767545761</v>
+        <v>355949494.9320216</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.692424179614127e-15</v>
+        <v>2.987230396472171e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>355949494.9320216</v>
+        <v>847.9304309456069</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.987230396472171e-07</v>
+        <v>0.0002234314152690468</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>847.9304309456069</v>
+        <v>13.67435895741379</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002234314152690468</v>
+        <v>0.9691940706026976</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>13.67435895741379</v>
+        <v>0.0417790142342586</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.9691940706026976</v>
+        <v>2.16695234402246</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0417790142342586</v>
+        <v>0.9596623835466651</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.16695234402246</v>
+        <v>0.8973892944879099</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9596623835466651</v>
+        <v>46</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8973892944879099</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2807972123614298</v>
       </c>
     </row>
@@ -6553,72 +6475,66 @@
         <v>5.986726696386563e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.03655567531605722</v>
+        <v>2.218224039572575e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.6276560829165923</v>
+        <v>4.193807634044522e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.218224039572575e-07</v>
+        <v>0.0006435701774289484</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.193807634044522e-06</v>
+        <v>0.2785677483115602</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.0006435701774289484</v>
+        <v>0.0775898848724817</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2785677483115602</v>
+        <v>1.886910751906929</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0775898848724817</v>
+        <v>1.642334002923345</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.864462662961264</v>
+        <v>3.946214041628084</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.642334002923345</v>
+        <v>5.217345742963418e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.946214041628084</v>
+        <v>51221413.06617744</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.217345742963418e-15</v>
+        <v>2.356524709483419e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>51221413.06617744</v>
+        <v>13.68840128014194</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.356524709483419e-06</v>
+        <v>0.0002573045416451805</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>13.68840128014194</v>
+        <v>13.91179937140092</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002573045416451805</v>
+        <v>1.043410237061138</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>13.91179937140092</v>
+        <v>0.04979824799996312</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.043410237061138</v>
+        <v>2.2084546140181</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.04979824799996312</v>
+        <v>0.9595634945729061</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.2084546140181</v>
+        <v>1.509137842928874</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9595634945729061</v>
+        <v>45</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.509137842928874</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3395371685962827</v>
       </c>
     </row>
@@ -6633,72 +6549,66 @@
         <v>5.990639907495011e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05200236508757591</v>
+        <v>2.218224039572575e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.6327490472643444</v>
+        <v>4.194127953575569e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.218224039572575e-07</v>
+        <v>0.01033672153407742</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.194127953575569e-06</v>
+        <v>0.2763805886910211</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01033672153407742</v>
+        <v>0.07648006887663225</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2763805886910211</v>
+        <v>1.887670558199579</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.07648006887663225</v>
+        <v>1.509952713945164</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.874572397700358</v>
+        <v>4.713975021428466</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.509952713945164</v>
+        <v>4.558448411215498e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.713975021428466</v>
+        <v>57057071.47943289</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.558448411215498e-15</v>
+        <v>2.119533371716635e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>57057071.47943289</v>
+        <v>14.84007167860767</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.119533371716635e-06</v>
+        <v>0.0002736085483844836</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>14.84007167860767</v>
+        <v>13.5664247363697</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002736085483844836</v>
+        <v>1.115089065006516</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.5664247363697</v>
+        <v>0.0503570733149496</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.115089065006516</v>
+        <v>2.235178850866016</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0503570733149496</v>
+        <v>0.9589030441919748</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.235178850866016</v>
+        <v>1.465692406378469</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9589030441919748</v>
+        <v>45</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.465692406378469</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4636578959238064</v>
       </c>
     </row>
@@ -6713,72 +6623,66 @@
         <v>6.004257149023003e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.09409311406427188</v>
+        <v>2.218224039572575e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.6468213946930796</v>
+        <v>4.195080376292035e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.218224039572575e-07</v>
+        <v>0.02172762951229855</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.195080376292035e-06</v>
+        <v>0.2792778400795807</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.02172762951229855</v>
+        <v>0.07844553560465654</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2792778400795807</v>
+        <v>1.89463731681007</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.07844553560465654</v>
+        <v>1.516220969788329</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.884814134753954</v>
+        <v>4.960123040015972</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.516220969788329</v>
+        <v>3.813087484021765e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.960123040015972</v>
+        <v>67461867.17640571</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.813087484021765e-15</v>
+        <v>1.794139481629306e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>67461867.17640571</v>
+        <v>17.35375588176033</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.794139481629306e-06</v>
+        <v>0.0002620044535663112</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>17.35375588176033</v>
+        <v>13.96475533295185</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002620044535663112</v>
+        <v>1.027727311236203</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.96475533295185</v>
+        <v>0.05109463908493652</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.027727311236203</v>
+        <v>2.184234021763601</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.05109463908493652</v>
+        <v>0.9587421103912612</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.184234021763601</v>
+        <v>1.439602482496344</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9587421103912612</v>
+        <v>45</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.439602482496344</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.5417502485179724</v>
       </c>
     </row>
@@ -6793,72 +6697,66 @@
         <v>6.05996399615903e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1442060639228505</v>
+        <v>2.218224039572575e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.6850339926008262</v>
+        <v>4.196772529119128e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.218224039572575e-07</v>
+        <v>0.0346607304258639</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.196772529119128e-06</v>
+        <v>0.2899477119157984</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.0346607304258639</v>
+        <v>0.08522664264011173</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2899477119157984</v>
+        <v>1.877754170660011</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.08522664264011173</v>
+        <v>1.567154117048484</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.865659154169033</v>
+        <v>4.149564602637195</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.567154117048484</v>
+        <v>3.987881700608145e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.149564602637195</v>
+        <v>65377986.01902296</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.987881700608145e-15</v>
+        <v>1.835456609520187e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>65377986.01902296</v>
+        <v>17.04532720609387</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.835456609520187e-06</v>
+        <v>0.000264690149740848</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>17.04532720609387</v>
+        <v>14.44947453785341</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000264690149740848</v>
+        <v>0.9832359929947788</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>14.44947453785341</v>
+        <v>0.05526394551783892</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.9832359929947788</v>
+        <v>2.079756642255164</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.05526394551783892</v>
+        <v>0.9583475237341846</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.079756642255164</v>
+        <v>1.399651229239088</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9583475237341846</v>
+        <v>45</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.399651229239088</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.4624298540934928</v>
       </c>
     </row>
@@ -6873,72 +6771,66 @@
         <v>6.229764705583896e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1345141297804142</v>
+        <v>2.46734325939941e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.6903547585169427</v>
+        <v>4.199247922828924e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.46734325939941e-07</v>
+        <v>0.04483999025479188</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.199247922828924e-06</v>
+        <v>0.2977606863365508</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04483999025479188</v>
+        <v>0.09064099536296912</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2977606863365508</v>
+        <v>1.730771981533264</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.09064099536296912</v>
+        <v>1.551596867677599</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.686562316697405</v>
+        <v>7.102976403908481</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.551596867677599</v>
+        <v>5.60553184885497e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>7.102976403908481</v>
+        <v>53094056.03210317</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.60553184885497e-15</v>
+        <v>2.075063311771078e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>53094056.03210317</v>
+        <v>15.80187536583381</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.075063311771078e-06</v>
+        <v>0.0002438275082796353</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>15.80187536583381</v>
+        <v>12.52903856156316</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002438275082796353</v>
+        <v>1.163886187395205</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.52903856156316</v>
+        <v>0.03827526377607676</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.163886187395205</v>
+        <v>2.408344448953077</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03827526377607676</v>
+        <v>0.953558832168107</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.408344448953077</v>
+        <v>1.690872474631518</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.953558832168107</v>
+        <v>46</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.690872474631518</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3230855652697952</v>
       </c>
     </row>
@@ -6953,72 +6845,66 @@
         <v>6.531321014681619e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.02592652851080817</v>
+        <v>2.785978997736895e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.558895652611648</v>
+        <v>4.202159772768422e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.785978997736895e-07</v>
+        <v>0.04567899159701617</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.202159772768422e-06</v>
+        <v>0.2876181304394148</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04567899159701617</v>
+        <v>0.08479067238181276</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2876181304394148</v>
+        <v>1.620188705943946</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.08479067238181276</v>
+        <v>1.180799887506359</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.6506521156256</v>
+        <v>30.41212866593864</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.180799887506359</v>
+        <v>1.986516466111025e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>30.41212866593864</v>
+        <v>429967490.7064162</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.986516466111025e-14</v>
+        <v>2.474099653437003e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>429967490.7064162</v>
+        <v>3672.513576709618</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.474099653437003e-07</v>
+        <v>0.0001801089844272491</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>3672.513576709618</v>
+        <v>9.136889740862578</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001801089844272491</v>
+        <v>1.788346478076739</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.136889740862578</v>
+        <v>0.01503599406474713</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.788346478076739</v>
+        <v>3.695735458493752</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01503599406474713</v>
+        <v>0.9488531550093685</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.695735458493752</v>
+        <v>0.8527964390228154</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9488531550093685</v>
+        <v>48</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8527964390228154</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.130341536057911</v>
       </c>
     </row>
@@ -7033,72 +6919,66 @@
         <v>6.916599453564809e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.1341374213017807</v>
+        <v>2.982484761206133e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.359732256591379</v>
+        <v>4.205112384165693e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.982484761206133e-07</v>
+        <v>0.04207695113290173</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.205112384165693e-06</v>
+        <v>0.2705864823976726</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04207695113290173</v>
+        <v>0.07497924353252075</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2705864823976726</v>
+        <v>1.612230505551942</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.07497924353252075</v>
+        <v>1.183547022787467</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.639736968882675</v>
+        <v>29.51876028504648</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.183547022787467</v>
+        <v>2.108577554388148e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>29.51876028504648</v>
+        <v>405101669.9962109</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.108577554388148e-14</v>
+        <v>2.625930539324478e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>405101669.9962109</v>
+        <v>3460.331022027272</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.625930539324478e-07</v>
+        <v>6.309193979602842e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3460.331022027272</v>
+        <v>8.489911866919048</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>6.309193979602842e-05</v>
+        <v>1.51363528106655</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.489911866919048</v>
+        <v>0.004547578913111875</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.51363528106655</v>
+        <v>6.138732907002205</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.004547578913111875</v>
+        <v>0.9488511623916384</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>6.138732907002205</v>
+        <v>0.8497284638189689</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9488511623916384</v>
+        <v>50</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8497284638189689</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>4.613322360551216</v>
       </c>
     </row>
@@ -7113,72 +6993,66 @@
         <v>7.340882075082822e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.2933523047428082</v>
+        <v>3.175337741490598e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.1832321943374033</v>
+        <v>4.208046200199937e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.175337741490598e-07</v>
+        <v>0.04131480440625197</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.208046200199937e-06</v>
+        <v>0.2560157107730014</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04131480440625197</v>
+        <v>0.0672428273784879</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2560157107730014</v>
+        <v>1.604118014720885</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0672428273784879</v>
+        <v>1.185591031045816</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.623843750743405</v>
+        <v>29.17226800809173</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.185591031045816</v>
+        <v>2.163560651471824e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>29.17226800809173</v>
+        <v>394829653.1517989</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.163560651471824e-14</v>
+        <v>2.694231837437185e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>394829653.1517989</v>
+        <v>3372.784543952822</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.694231837437185e-07</v>
+        <v>2.455869340735655e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3372.784543952822</v>
+        <v>8.86357916132037</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>2.455869340735655e-05</v>
+        <v>1.231394175520313</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.86357916132037</v>
+        <v>0.001929405503198966</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.231394175520313</v>
+        <v>7.513995337234099</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.001929405503198966</v>
+        <v>0.9471851544199993</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>7.513995337234099</v>
+        <v>0.9073151805823715</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9471851544199993</v>
+        <v>49</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9073151805823715</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>7.477049348556955</v>
       </c>
     </row>
@@ -7193,72 +7067,66 @@
         <v>7.846474420060905e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.4675128425733803</v>
+        <v>3.54233093969594e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.05304487094142774</v>
+        <v>4.211343391851512e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.54233093969594e-07</v>
+        <v>0.04648431794011363</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.211343391851512e-06</v>
+        <v>0.2458797478900889</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04648431794011363</v>
+        <v>0.06259494126680511</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2458797478900889</v>
+        <v>1.601018709791951</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.06259494126680511</v>
+        <v>1.189879612984357</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.61836259827534</v>
+        <v>28.31082325811032</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.189879612984357</v>
+        <v>2.361031608257602e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>28.31082325811032</v>
+        <v>361877351.7757314</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.361031608257602e-14</v>
+        <v>2.939671779568315e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>361877351.7757314</v>
+        <v>3091.894083225754</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.939671779568315e-07</v>
+        <v>1.666048420298632e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3091.894083225754</v>
+        <v>8.612987803385117</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>1.666048420298632e-05</v>
+        <v>1.301867411509626</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.612987803385117</v>
+        <v>0.00123593401119576</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.301867411509626</v>
+        <v>8.010918826196928</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.00123593401119576</v>
+        <v>0.9450756437052119</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.010918826196928</v>
+        <v>0.9112513120566068</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9450756437052119</v>
+        <v>26</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9112513120566068</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>8.537356464378751</v>
       </c>
     </row>
@@ -7273,72 +7141,66 @@
         <v>8.50820713499049e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.6847356187511192</v>
+        <v>3.990613404071578e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.4678926073970486</v>
+        <v>4.215408475154651e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.990613404071578e-07</v>
+        <v>0.05248263740218489</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.215408475154651e-06</v>
+        <v>0.2347274737001118</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.05248263740218489</v>
+        <v>0.05783793898052814</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2347274737001118</v>
+        <v>1.578689794040296</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.05783793898052814</v>
+        <v>1.191439453854342</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.588667144563464</v>
+        <v>27.59528358356876</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.191439453854342</v>
+        <v>2.485061123857034e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>27.59528358356876</v>
+        <v>343831502.4681811</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.485061123857034e-14</v>
+        <v>3.093797377696651e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>343831502.4681811</v>
+        <v>2937.841797610929</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.093797377696651e-07</v>
+        <v>1.543323020460863e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2937.841797610929</v>
+        <v>8.8016292878025</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>1.543323020460863e-05</v>
+        <v>1.40081389844449</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.8016292878025</v>
+        <v>0.001195591943071187</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.40081389844449</v>
+        <v>8.147070019975249</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.001195591943071187</v>
+        <v>0.9410393650133003</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.147070019975249</v>
+        <v>0.8914891499513606</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9410393650133003</v>
+        <v>7</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8914891499513606</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>8.858386025103439</v>
       </c>
     </row>
@@ -7353,72 +7215,66 @@
         <v>9.292174569051006e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.8878133049691893</v>
+        <v>4.321427696168908e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.8662016106327668</v>
+        <v>4.220192780765255e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.321427696168908e-07</v>
+        <v>0.05461059605116956</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.220192780765255e-06</v>
+        <v>0.2182118512077069</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.05461059605116956</v>
+        <v>0.05059218107127362</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2182118512077069</v>
+        <v>1.571089908924731</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.05059218107127362</v>
+        <v>1.193078337888516</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.578772621682339</v>
+        <v>26.99462170440412</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.193078337888516</v>
+        <v>2.596882541820935e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>26.99462170440412</v>
+        <v>329037700.8366371</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.596882541820935e-14</v>
+        <v>3.232866059905552e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>329037700.8366371</v>
+        <v>2811.535881563915</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.232866059905552e-07</v>
+        <v>1.94012623249454e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2811.535881563915</v>
+        <v>8.714990324763075</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>1.94012623249454e-05</v>
+        <v>1.518585239706363</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.714990324763075</v>
+        <v>0.001473546368310926</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.518585239706363</v>
+        <v>7.948038559380246</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.001473546368310926</v>
+        <v>0.941656114843571</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>7.948038559380246</v>
+        <v>0.866625335020766</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.941656114843571</v>
+        <v>8</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.866625335020766</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>8.348854771261953</v>
       </c>
     </row>
@@ -7433,72 +7289,66 @@
         <v>1.015034265543028e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.041288986966127</v>
+        <v>4.669656657058387e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.114275981538349</v>
+        <v>4.225555367763614e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.669656657058387e-07</v>
+        <v>0.05610057898464443</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.225555367763614e-06</v>
+        <v>0.2030697789616875</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.05610057898464443</v>
+        <v>0.04437344026038516</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2030697789616875</v>
+        <v>1.561682329463279</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04437344026038516</v>
+        <v>1.195132155937309</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.563576913455323</v>
+        <v>26.59342269180607</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.195132155937309</v>
+        <v>2.675828808555075e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>26.59342269180607</v>
+        <v>319345696.7282637</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.675828808555075e-14</v>
+        <v>3.330946002643727e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>319345696.7282637</v>
+        <v>2728.855012843387</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.330946002643727e-07</v>
+        <v>3.323376633038261e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2728.855012843387</v>
+        <v>7.840192442221118</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>3.323376633038261e-05</v>
+        <v>1.539976568046943</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.840192442221118</v>
+        <v>0.002042833671678946</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.539976568046943</v>
+        <v>7.135743900689416</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.002042833671678946</v>
+        <v>0.9397025631331292</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>7.135743900689416</v>
+        <v>0.9713242797914833</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9397025631331292</v>
+        <v>8</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.9713242797914833</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>6.496767443383667</v>
       </c>
     </row>
@@ -7513,72 +7363,66 @@
         <v>1.112524680814701e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.173396076674159</v>
+        <v>5.145245745034936e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.336761648609134</v>
+        <v>4.231701689073386e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.145245745034936e-07</v>
+        <v>0.05951449638531378</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.231701689073386e-06</v>
+        <v>0.19069885309898</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05951449638531378</v>
+        <v>0.03989892211876243</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.19069885309898</v>
+        <v>1.52537747944712</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03989892211876243</v>
+        <v>1.200752438240029</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.52198061825156</v>
+        <v>25.1817539019128</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.200752438240029</v>
+        <v>2.984247561287333e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>25.1817539019128</v>
+        <v>286419710.4517134</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.984247561287333e-14</v>
+        <v>3.713151151275951e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>286419710.4517134</v>
+        <v>2448.164805969566</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.713151151275951e-07</v>
+        <v>3.879681525856741e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2448.164805969566</v>
+        <v>7.621913561360317</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>3.879681525856741e-05</v>
+        <v>1.406209456011231</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.621913561360317</v>
+        <v>0.002253845360882034</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.406209456011231</v>
+        <v>6.682948764806656</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.002253845360882034</v>
+        <v>0.9286699639361184</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>6.682948764806656</v>
+        <v>0.9627765991564601</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9286699639361184</v>
+        <v>9</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.9627765991564601</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>5.779667272452248</v>
       </c>
     </row>
@@ -7593,72 +7437,66 @@
         <v>1.2164670256685e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.259679932689458</v>
+        <v>5.321430445476511e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.420399051140354</v>
+        <v>4.238643005498995e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.321430445476511e-07</v>
+        <v>0.05859952338747317</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.238643005498995e-06</v>
+        <v>0.1740268428609823</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.05859952338747317</v>
+        <v>0.03371835746369763</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1740268428609823</v>
+        <v>1.514796107126684</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03371835746369763</v>
+        <v>1.201915933192457</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.506941486440472</v>
+        <v>19.89769927336459</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.201915933192457</v>
+        <v>4.779704774890486e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>19.89769927336459</v>
+        <v>178835632.1312198</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.779704774890486e-14</v>
+        <v>5.946811809465239e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>178835632.1312198</v>
+        <v>1528.653943249417</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.946811809465239e-07</v>
+        <v>3.140166304463267e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1528.653943249417</v>
+        <v>6.259077534684831</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>3.140166304463267e-05</v>
+        <v>1.666919942557701</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.259077534684831</v>
+        <v>0.001230193171297483</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.666919942557701</v>
+        <v>7.061623156272077</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.001230193171297483</v>
+        <v>0.9255205825464091</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>7.061623156272077</v>
+        <v>1.00671470033045</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9255205825464091</v>
+        <v>9</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.00671470033045</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>6.151442244741045</v>
       </c>
     </row>
@@ -7673,72 +7511,66 @@
         <v>1.304203041641313e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.247837371899551</v>
+        <v>5.321430445476511e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.163680898805207</v>
+        <v>4.245716781258712e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.321430445476511e-07</v>
+        <v>0.05312013539480891</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.245716781258712e-06</v>
+        <v>0.1646262095762346</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05312013539480891</v>
+        <v>0.02991686915804965</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1646262095762346</v>
+        <v>1.497706543931837</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02991686915804965</v>
+        <v>1.20517221301013</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.486604603396169</v>
+        <v>18.69179652061517</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.20517221301013</v>
+        <v>5.416324915335116e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>18.69179652061517</v>
+        <v>157835074.0471291</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.416324915335116e-14</v>
+        <v>6.737628064414263e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>157835074.0471291</v>
+        <v>1349.310020684708</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.737628064414263e-07</v>
+        <v>2.759473606759586e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1349.310020684708</v>
+        <v>6.922990520415686</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>2.759473606759586e-05</v>
+        <v>1.973255708486541</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>6.922990520415686</v>
+        <v>0.001322554929095514</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.973255708486541</v>
+        <v>7.270307319454954</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.001322554929095514</v>
+        <v>0.922195939831853</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>7.270307319454954</v>
+        <v>0.9875413159551352</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.922195939831853</v>
+        <v>9</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.9875413159551352</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>6.527440767783562</v>
       </c>
     </row>
@@ -7753,72 +7585,66 @@
         <v>1.365924705707971e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.171817873249338</v>
+        <v>5.321430445476511e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.7683996053242139</v>
+        <v>4.252424357374529e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.321430445476511e-07</v>
+        <v>0.04734501090688733</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.252424357374529e-06</v>
+        <v>0.162768662313714</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.04734501090688733</v>
+        <v>0.02872799869009453</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.162768662313714</v>
+        <v>1.500148258626834</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02872799869009453</v>
+        <v>1.209317945811329</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.484600686362302</v>
+        <v>18.80061457158831</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.209317945811329</v>
+        <v>5.353806936360672e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>18.80061457158831</v>
+        <v>159697826.6281679</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.353806936360672e-14</v>
+        <v>6.659173767413182e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>159697826.6281679</v>
+        <v>1365.40257494123</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.659173767413182e-07</v>
+        <v>3.665007091105566e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1365.40257494123</v>
+        <v>7.464215163392857</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>3.665007091105566e-05</v>
+        <v>1.511247319861177</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.464215163392857</v>
+        <v>0.002041940669173362</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.511247319861177</v>
+        <v>6.691417988994708</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.002041940669173362</v>
+        <v>0.9231529424152317</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>6.691417988994708</v>
+        <v>1.006188792941669</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9231529424152317</v>
+        <v>16</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.006188792941669</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>5.613683352819077</v>
       </c>
     </row>
@@ -7833,72 +7659,66 @@
         <v>1.405291199347753e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.077429814518584</v>
+        <v>5.321430445476511e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.4130408338173877</v>
+        <v>4.258670463972737e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.321430445476511e-07</v>
+        <v>0.04292080276115998</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.258670463972737e-06</v>
+        <v>0.1628962003655573</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04292080276115998</v>
+        <v>0.02837237945814947</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1628962003655573</v>
+        <v>1.502319842469097</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02837237945814947</v>
+        <v>1.209432110409182</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.48660127753037</v>
+        <v>18.91224096440278</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.209432110409182</v>
+        <v>5.290793519580607e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>18.91224096440278</v>
+        <v>161606164.4737246</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.290793519580607e-14</v>
+        <v>6.580601386873924e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>161606164.4737246</v>
+        <v>1381.772861700602</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.580601386873924e-07</v>
+        <v>6.673732447014449e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1381.772861700602</v>
+        <v>7.044397402473629</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>6.673732447014449e-05</v>
+        <v>1.454782763175208</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.044397402473629</v>
+        <v>0.003311741940899042</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.454782763175208</v>
+        <v>5.282393767200516</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.003311741940899042</v>
+        <v>0.9227427083602444</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>5.282393767200516</v>
+        <v>1.030968670861643</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9227427083602444</v>
+        <v>16</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.030968670861643</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>3.132800854091639</v>
       </c>
     </row>
@@ -7913,72 +7733,66 @@
         <v>1.42836947624983e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.9861910534637034</v>
+        <v>5.321430445476511e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.1402469908604944</v>
+        <v>4.264536671408662e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.321430445476511e-07</v>
+        <v>0.04003026128596585</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.264536671408662e-06</v>
+        <v>0.1630212238854982</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04003026128596585</v>
+        <v>0.02817569715431125</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1630212238854982</v>
+        <v>1.506773225801732</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02817569715431125</v>
+        <v>1.209372372555414</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.491539595045998</v>
+        <v>19.08162347497872</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.209372372555414</v>
+        <v>5.197280473573394e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>19.08162347497872</v>
+        <v>164519094.9911768</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.197280473573394e-14</v>
+        <v>6.464146596321598e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>164519094.9911768</v>
+        <v>1406.723614561947</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.464146596321598e-07</v>
+        <v>9.899095206943258e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1406.723614561947</v>
+        <v>6.819279156029759</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>9.899095206943258e-05</v>
+        <v>1.494711313563367</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>6.819279156029759</v>
+        <v>0.004603333500569981</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.494711313563367</v>
+        <v>3.899148077426467</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.004603333500569981</v>
+        <v>0.9228618192667046</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.899148077426467</v>
+        <v>1.017880182932494</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9228618192667046</v>
+        <v>16</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.017880182932494</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>1.068082144548512</v>
       </c>
     </row>
@@ -7993,72 +7807,66 @@
         <v>1.440205777548575e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.9047912777660189</v>
+        <v>5.321430445476511e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.06108578492068739</v>
+        <v>4.270168910044503e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.321430445476511e-07</v>
+        <v>0.03869306162945527</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.270168910044503e-06</v>
+        <v>0.1626728612275576</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.03869306162945527</v>
+        <v>0.02795869181452591</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1626728612275576</v>
+        <v>1.516478436109535</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02795869181452591</v>
+        <v>1.215126045048709</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.502523536639617</v>
+        <v>19.26800745056622</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.215126045048709</v>
+        <v>5.097217753848238e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>19.26800745056622</v>
+        <v>167756663.6446581</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.097217753848238e-14</v>
+        <v>6.339546813504083e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>167756663.6446581</v>
+        <v>1434.474220047927</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.339546813504083e-07</v>
+        <v>0.0001110319429826966</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1434.474220047927</v>
+        <v>6.368100644453799</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001110319429826966</v>
+        <v>1.446800191040897</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.368100644453799</v>
+        <v>0.004502645720166351</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.446800191040897</v>
+        <v>3.287438286581803</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.004502645720166351</v>
+        <v>0.9255312591066939</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.287438286581803</v>
+        <v>1.007859031369885</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9255312591066939</v>
+        <v>16</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.007859031369885</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2908808883746586</v>
       </c>
     </row>
@@ -8073,72 +7881,66 @@
         <v>1.444616357311803e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.833646715150255</v>
+        <v>5.321430445476511e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.2141664158765169</v>
+        <v>4.27575390579513e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.321430445476511e-07</v>
+        <v>0.03895051319115499</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.27575390579513e-06</v>
+        <v>0.1619718363574431</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.03895051319115499</v>
+        <v>0.02775188780488608</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1619718363574431</v>
+        <v>1.544408047053343</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02775188780488608</v>
+        <v>1.235934136032022</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.535994327741578</v>
+        <v>19.12922664199279</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.235934136032022</v>
+        <v>5.171445746608752e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>19.12922664199279</v>
+        <v>165336887.1081017</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.171445746608752e-14</v>
+        <v>6.432957720448871e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>165336887.1081017</v>
+        <v>1413.681211966727</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.432957720448871e-07</v>
+        <v>0.0001118068057802244</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1413.681211966727</v>
+        <v>7.018087857022035</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001118068057802244</v>
+        <v>1.47586278514407</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.018087857022035</v>
+        <v>0.00550688290036616</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.47586278514407</v>
+        <v>3.192333998288601</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.00550688290036616</v>
+        <v>0.9344713192373481</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.192333998288601</v>
+        <v>1.011227385691108</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9344713192373481</v>
+        <v>15</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.011227385691108</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2013278287835833</v>
       </c>
     </row>
@@ -8515,7 +8317,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.32897239456885</v>
+        <v>1.308126411903452</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.000723634581411</v>
@@ -8604,7 +8406,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.298761004410039</v>
+        <v>1.275448633008988</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.021007641666667</v>
@@ -8693,7 +8495,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.279993445643925</v>
+        <v>1.261407459773476</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.008617222837883</v>
@@ -8782,7 +8584,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.248316785420085</v>
+        <v>1.225136217606059</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.065354672408454</v>
@@ -8871,7 +8673,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.245409945590866</v>
+        <v>1.218798065893586</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.083927184291165</v>
@@ -8960,7 +8762,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.217835690352673</v>
+        <v>1.194848502686252</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.108475269229275</v>
@@ -9049,7 +8851,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.209539024493989</v>
+        <v>1.187597331355977</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.109984375850215</v>
@@ -9138,7 +8940,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.199950910713747</v>
+        <v>1.177596976399232</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.132135256892792</v>
@@ -9227,7 +9029,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.20451722763184</v>
+        <v>1.18227580896536</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.120621764914748</v>
@@ -9316,7 +9118,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.209820104887352</v>
+        <v>1.185851139582176</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.094995890688824</v>
@@ -9405,7 +9207,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.218372898632447</v>
+        <v>1.193475016460425</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.09924701297857</v>
@@ -9494,7 +9296,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.221065568944629</v>
+        <v>1.197202749849639</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.096485436544329</v>
@@ -9583,7 +9385,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.206423082922637</v>
+        <v>1.181118957607006</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.085677506723507</v>
@@ -9672,7 +9474,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.215587824311086</v>
+        <v>1.194302475536278</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.034153680141789</v>
@@ -9761,7 +9563,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.215801180976922</v>
+        <v>1.19485985270627</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.09713040357845</v>
@@ -9850,7 +9652,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.212118369035689</v>
+        <v>1.191618788882917</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.088926850883082</v>
@@ -9939,7 +9741,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.211124643963764</v>
+        <v>1.190872787021032</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.058355498989451</v>
@@ -10028,7 +9830,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.215213281229526</v>
+        <v>1.194448337251032</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.01493696072089</v>
@@ -10117,7 +9919,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.239214489988246</v>
+        <v>1.217430598354782</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.75316696440161</v>
@@ -10206,7 +10008,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.256304281371001</v>
+        <v>1.239259837329817</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.740868150930911</v>
@@ -10295,7 +10097,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.237464182281071</v>
+        <v>1.218341957003942</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.977367798921171</v>
@@ -10384,7 +10186,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.243808118700608</v>
+        <v>1.220426249375334</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.958925429567598</v>
@@ -10473,7 +10275,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.263382136762466</v>
+        <v>1.23791239930016</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.953381263718078</v>
@@ -10562,7 +10364,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.261100058512293</v>
+        <v>1.238332220546477</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.954891785335544</v>
@@ -10651,7 +10453,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.253817390466549</v>
+        <v>1.231492350006317</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.944906669698554</v>
@@ -10740,7 +10542,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.227521718270002</v>
+        <v>1.210392934732334</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.970229701859649</v>
@@ -10829,7 +10631,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.216106399249011</v>
+        <v>1.196172194834234</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.846586287681687</v>
@@ -10918,7 +10720,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.225145354223409</v>
+        <v>1.207230659637698</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.895903464200682</v>
@@ -11007,7 +10809,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.228665901517795</v>
+        <v>1.210840815742502</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.979422812617528</v>
@@ -11096,7 +10898,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.230438784805567</v>
+        <v>1.213032240294018</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.9462068870996</v>
@@ -11185,7 +10987,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.249145292246968</v>
+        <v>1.231495984515463</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.965891664764911</v>
@@ -11274,7 +11076,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.272663105293091</v>
+        <v>1.256346748354042</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.947273949999406</v>
@@ -11363,7 +11165,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.267042791885069</v>
+        <v>1.24917379052012</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.958819215535704</v>
@@ -11452,7 +11254,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.247631074201266</v>
+        <v>1.228216195579839</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.973728964840454</v>
@@ -11541,7 +11343,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.256101289069085</v>
+        <v>1.233037028189712</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.030708191401296</v>
@@ -11630,7 +11432,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.260859768404225</v>
+        <v>1.248865220333991</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.945455657484526</v>
@@ -11719,7 +11521,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.260462709615619</v>
+        <v>1.252598738027924</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.956758250169776</v>
@@ -11808,7 +11610,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.260909056540438</v>
+        <v>1.252915546718934</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.953279414770781</v>
@@ -11897,7 +11699,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.259175597203384</v>
+        <v>1.252252612456398</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.959259315276736</v>
@@ -11986,7 +11788,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.275940405746385</v>
+        <v>1.267773694012988</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.953253482276858</v>
@@ -12075,7 +11877,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.333196679714288</v>
+        <v>1.326974714906689</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.869391433927917</v>
@@ -12164,7 +11966,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.396601658489042</v>
+        <v>1.398256913345827</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.890917498662041</v>
@@ -12253,7 +12055,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.372245404579162</v>
+        <v>1.369593454668285</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.0092433245104</v>
@@ -12342,7 +12144,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.357207463129624</v>
+        <v>1.363233932529579</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.019105010821301</v>
@@ -12431,7 +12233,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.360512170871043</v>
+        <v>1.363861384597197</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.010255379368222</v>
@@ -12520,7 +12322,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.313203413708383</v>
+        <v>1.313862907907092</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.07984095211136</v>
@@ -12609,7 +12411,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.29343531129712</v>
+        <v>1.290608266126813</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.112099930532896</v>
@@ -12698,7 +12500,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.300269387270423</v>
+        <v>1.290693319204384</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.811410559026727</v>
@@ -12787,7 +12589,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.312309332777261</v>
+        <v>1.312552517330608</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.03627233072244</v>
@@ -12876,7 +12678,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.332121932137298</v>
+        <v>1.333503905378917</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.878559553405966</v>
@@ -12965,7 +12767,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.342283475045316</v>
+        <v>1.34085829361547</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.041659683232365</v>
@@ -13054,7 +12856,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.345394781769564</v>
+        <v>1.343007722984537</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.041741802302439</v>
@@ -13143,7 +12945,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.32633862085655</v>
+        <v>1.322165916596481</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.062704554880082</v>
@@ -13232,7 +13034,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.304117495115579</v>
+        <v>1.298733008712428</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.10954980029044</v>
@@ -13321,7 +13123,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.29493404661807</v>
+        <v>1.291117515334345</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.092044895731711</v>
@@ -13410,7 +13212,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.274976471345942</v>
+        <v>1.264302783695704</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.102478558022543</v>
@@ -13499,7 +13301,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.277328494033996</v>
+        <v>1.264427127541537</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.933399335135151</v>
@@ -13588,7 +13390,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.293949770484406</v>
+        <v>1.27968036084053</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.966117773885359</v>
@@ -13677,7 +13479,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.303818557152788</v>
+        <v>1.286904293192035</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.011350505330545</v>
@@ -13766,7 +13568,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.269779304731088</v>
+        <v>1.251445079374294</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.033794016968851</v>
@@ -13855,7 +13657,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.293450321827855</v>
+        <v>1.279394642611861</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.025206272877105</v>
@@ -13944,7 +13746,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.313598411222699</v>
+        <v>1.295481493446891</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.908436493053557</v>
@@ -14033,7 +13835,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.318912412782677</v>
+        <v>1.307248757851772</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.05307562855729</v>
@@ -14122,7 +13924,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.317648088605058</v>
+        <v>1.306601106476145</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.058506606622338</v>
@@ -14211,7 +14013,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.31768040403544</v>
+        <v>1.306053154588296</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.055798665681658</v>
@@ -14300,7 +14102,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.322104017004209</v>
+        <v>1.309433414805879</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.05888715876693</v>
@@ -14389,7 +14191,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.319470559373798</v>
+        <v>1.307312335650308</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.023410077645815</v>
@@ -14478,7 +14280,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.34008498562485</v>
+        <v>1.328994425207031</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.990403545297029</v>
@@ -14567,7 +14369,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.325167028950474</v>
+        <v>1.310242314065681</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.046817313823392</v>
@@ -14656,7 +14458,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.32541278965662</v>
+        <v>1.313932984151944</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.048846925054955</v>
@@ -14745,7 +14547,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.342611362146107</v>
+        <v>1.334887123833711</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.062794933420504</v>
@@ -14834,7 +14636,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.320971273957497</v>
+        <v>1.31368380326132</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.047226802506964</v>
@@ -14923,7 +14725,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.299476972240904</v>
+        <v>1.293475117964841</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.073844615338923</v>
@@ -15012,7 +14814,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.291640104325012</v>
+        <v>1.28813227769577</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.898842039318343</v>
@@ -15101,7 +14903,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.31178074171405</v>
+        <v>1.306602420332339</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.983419462093757</v>
@@ -15190,7 +14992,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.323468705510631</v>
+        <v>1.31532929954483</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.982478710577861</v>
@@ -15476,7 +15278,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.316813643759117</v>
+        <v>1.298774818586734</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.949071290105763</v>
@@ -15565,7 +15367,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.288621776404279</v>
+        <v>1.269459679325975</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.960672674521103</v>
@@ -15654,7 +15456,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.264789615589553</v>
+        <v>1.252031939378427</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.990108954572239</v>
@@ -15743,7 +15545,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.231351586494908</v>
+        <v>1.213762198888424</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.002307366421995</v>
@@ -15832,7 +15634,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.225944643885534</v>
+        <v>1.205387580034102</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.062860943597718</v>
@@ -15921,7 +15723,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.197862252788359</v>
+        <v>1.17955669683234</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.076706105205892</v>
@@ -16010,7 +15812,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.1894618711251</v>
+        <v>1.171572648345309</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.0813137385986</v>
@@ -16099,7 +15901,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.180492679077652</v>
+        <v>1.16270441980362</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.099928429904943</v>
@@ -16188,7 +15990,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.183781048081455</v>
+        <v>1.166595327523959</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.085106949711339</v>
@@ -16277,7 +16079,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.188538044688861</v>
+        <v>1.170080367167659</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.067725380177289</v>
@@ -16366,7 +16168,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.196187571426885</v>
+        <v>1.179049158699741</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.058358196462814</v>
@@ -16455,7 +16257,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.196141102717066</v>
+        <v>1.178475063946488</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.060138008742499</v>
@@ -16544,7 +16346,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.18314312499518</v>
+        <v>1.163258272404401</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.056910038202731</v>
@@ -16633,7 +16435,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.188547924054315</v>
+        <v>1.173111235619903</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.990048637963434</v>
@@ -16722,7 +16524,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.187799633747568</v>
+        <v>1.170962247865901</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.042966970485881</v>
@@ -16811,7 +16613,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.182881310328687</v>
+        <v>1.164900792599856</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.028968167711592</v>
@@ -16900,7 +16702,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.18038639378709</v>
+        <v>1.161651504263563</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.990164016337721</v>
@@ -16989,7 +16791,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.18796742951172</v>
+        <v>1.169256103447794</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.957981028098623</v>
@@ -17078,7 +16880,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.20552942685772</v>
+        <v>1.186845967715039</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.719023924850426</v>
@@ -17167,7 +16969,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.222482632714499</v>
+        <v>1.209879705970374</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.679327961472852</v>
@@ -17256,7 +17058,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.205031053026051</v>
+        <v>1.190041290198056</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.926494469873172</v>
@@ -17345,7 +17147,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.21232116078875</v>
+        <v>1.195107136799793</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.901061260811407</v>
@@ -17434,7 +17236,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.23349841927039</v>
+        <v>1.213936028838551</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.888634401009726</v>
@@ -17523,7 +17325,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.236960948127412</v>
+        <v>1.219174116485402</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.888306959110055</v>
@@ -17612,7 +17414,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.227048479683256</v>
+        <v>1.207596168558269</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.900782379660664</v>
@@ -17701,7 +17503,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.20193025402203</v>
+        <v>1.185394521544826</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.92105414995829</v>
@@ -17790,7 +17592,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.195712539407952</v>
+        <v>1.176278242438695</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.818617418085354</v>
@@ -17879,7 +17681,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.203526359529022</v>
+        <v>1.187267958526641</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.866179348005053</v>
@@ -17968,7 +17770,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.205057227985794</v>
+        <v>1.188668252343141</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.929011234645406</v>
@@ -18057,7 +17859,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.202227009481357</v>
+        <v>1.185624909843428</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.893100595299281</v>
@@ -18146,7 +17948,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.214982517407916</v>
+        <v>1.198449907060957</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.890206499751486</v>
@@ -18235,7 +18037,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.237995718904913</v>
+        <v>1.222887469064816</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.867638515313149</v>
@@ -18324,7 +18126,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.228636255390821</v>
+        <v>1.21061144694022</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.897124001062169</v>
@@ -18413,7 +18215,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.209070257223974</v>
+        <v>1.187224241368152</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.934435786000966</v>
@@ -18502,7 +18304,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.213649055198292</v>
+        <v>1.187461970277599</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.952608109464868</v>
@@ -18591,7 +18393,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.211464218463976</v>
+        <v>1.195599838665865</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.879330877511358</v>
@@ -18680,7 +18482,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.207566966088185</v>
+        <v>1.194530811097556</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.897098907104804</v>
@@ -18769,7 +18571,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.207596143694611</v>
+        <v>1.195436723043268</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.888711742295353</v>
@@ -18858,7 +18660,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.206162623908571</v>
+        <v>1.193749532820344</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.892614033339821</v>
@@ -18947,7 +18749,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.220713693728755</v>
+        <v>1.209015000560352</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.861276931758135</v>
@@ -19036,7 +18838,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.255706648505965</v>
+        <v>1.242582529606595</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.781176704946653</v>
@@ -19125,7 +18927,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.316103566894437</v>
+        <v>1.31101231146702</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.765279305490896</v>
@@ -19214,7 +19016,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.292385358272119</v>
+        <v>1.281607801025609</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.854896513641863</v>
@@ -19303,7 +19105,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.277525848275771</v>
+        <v>1.275492840574236</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.872449702880302</v>
@@ -19392,7 +19194,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.283324928055454</v>
+        <v>1.282213635480674</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.869465366018878</v>
@@ -19481,7 +19283,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.248912539863937</v>
+        <v>1.243635634094246</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.946768576206017</v>
@@ -19570,7 +19372,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.236117001380125</v>
+        <v>1.227351946960274</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.975404888814363</v>
@@ -19659,7 +19461,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.245626643521989</v>
+        <v>1.230638236923003</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.735378473717384</v>
@@ -19748,7 +19550,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.251488628762638</v>
+        <v>1.248523246739833</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.938875531606595</v>
@@ -19837,7 +19639,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.268286043054784</v>
+        <v>1.267593890085609</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.767392117201273</v>
@@ -19926,7 +19728,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.279795169389671</v>
+        <v>1.277919463011405</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.919274691490301</v>
@@ -20015,7 +19817,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.278495033606418</v>
+        <v>1.2747535202997</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.924020772883853</v>
@@ -20104,7 +19906,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.261536951875246</v>
+        <v>1.255558257763765</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.931659080800562</v>
@@ -20193,7 +19995,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.237932416637978</v>
+        <v>1.228963601475973</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.989134836494152</v>
@@ -20282,7 +20084,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.232390756606284</v>
+        <v>1.222705558040306</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.994885733940642</v>
@@ -20371,7 +20173,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.227012813036285</v>
+        <v>1.214207738181645</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.020653303405497</v>
@@ -20460,7 +20262,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.230069146861407</v>
+        <v>1.213252546402615</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.829010019894734</v>
@@ -20549,7 +20351,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.25138167761083</v>
+        <v>1.235377773777404</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.841808855292433</v>
@@ -20638,7 +20440,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.266297465634058</v>
+        <v>1.251512092647933</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.947571792935642</v>
@@ -20727,7 +20529,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.22706502880399</v>
+        <v>1.204921847508899</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.932767119566638</v>
@@ -20816,7 +20618,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.238063177284736</v>
+        <v>1.217440002560151</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.961332328226441</v>
@@ -20905,7 +20707,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.255795693554259</v>
+        <v>1.230546030074232</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.842034915351082</v>
@@ -20994,7 +20796,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.255494206321269</v>
+        <v>1.239051445660907</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.937915818946959</v>
@@ -21083,7 +20885,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.261181210512236</v>
+        <v>1.243788166197894</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.949286800212054</v>
@@ -21172,7 +20974,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.262006977501958</v>
+        <v>1.244601549749026</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.974510450183913</v>
@@ -21261,7 +21063,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.269496404799403</v>
+        <v>1.25227295257589</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.979100633405836</v>
@@ -21350,7 +21152,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.272933248576259</v>
+        <v>1.255360415433623</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.961915070599423</v>
@@ -21439,7 +21241,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.294958934262066</v>
+        <v>1.279527687913797</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.917494385579307</v>
@@ -21528,7 +21330,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.286957564503961</v>
+        <v>1.267841794462829</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.974907433832757</v>
@@ -21617,7 +21419,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.283750852392701</v>
+        <v>1.26807622906213</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.999029516397161</v>
@@ -21706,7 +21508,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.295486152451331</v>
+        <v>1.282754235006872</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.972910708138542</v>
@@ -21795,7 +21597,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.272709795460712</v>
+        <v>1.260911263798647</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.990517822179289</v>
@@ -21884,7 +21686,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.246094845452391</v>
+        <v>1.234583681670157</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.00432531568996</v>
@@ -21973,7 +21775,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.240026216443437</v>
+        <v>1.228461453108382</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.834571907070343</v>
@@ -22062,7 +21864,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.265103539775777</v>
+        <v>1.258183188546173</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.902220635202216</v>
@@ -22151,7 +21953,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.289557758233998</v>
+        <v>1.279537450775923</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.906793834008808</v>
@@ -22437,7 +22239,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.315477530917764</v>
+        <v>1.29316671396185</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.966402532459239</v>
@@ -22526,7 +22328,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.285164516025681</v>
+        <v>1.260942718800854</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.968741060213494</v>
@@ -22615,7 +22417,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.263236206947779</v>
+        <v>1.243938808422482</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.986374188183374</v>
@@ -22704,7 +22506,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.232001827055208</v>
+        <v>1.208215235717548</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.048412481996393</v>
@@ -22793,7 +22595,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.226166200997685</v>
+        <v>1.196275237158483</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.049367671618609</v>
@@ -22882,7 +22684,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.196418703050077</v>
+        <v>1.17027106541544</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.063297563620724</v>
@@ -22971,7 +22773,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.190194062094088</v>
+        <v>1.165111870636911</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.074362040974193</v>
@@ -23060,7 +22862,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.180770112364227</v>
+        <v>1.156383933314402</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.077462988689317</v>
@@ -23149,7 +22951,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.18465524668838</v>
+        <v>1.15939874720402</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.08120101272882</v>
@@ -23238,7 +23040,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.19099673283211</v>
+        <v>1.164044384934964</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.061471099591277</v>
@@ -23327,7 +23129,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.200279321297248</v>
+        <v>1.173059546988354</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.063864700319854</v>
@@ -23416,7 +23218,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.200695683218103</v>
+        <v>1.173538194874385</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.067874992874605</v>
@@ -23505,7 +23307,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.186275581035421</v>
+        <v>1.158380269230705</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.068480629182442</v>
@@ -23594,7 +23396,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.191526160563104</v>
+        <v>1.167918569684939</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.993372117382197</v>
@@ -23683,7 +23485,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.191022604599014</v>
+        <v>1.166809776360577</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.043261316687045</v>
@@ -23772,7 +23574,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.188677093044163</v>
+        <v>1.164001775955099</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.046530874444948</v>
@@ -23861,7 +23663,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.187306413333726</v>
+        <v>1.162910709164776</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.000746473654063</v>
@@ -23950,7 +23752,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.196534452129901</v>
+        <v>1.171154980784374</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.989379583602526</v>
@@ -24039,7 +23841,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.215342732062422</v>
+        <v>1.187683943968887</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.713709550301073</v>
@@ -24128,7 +23930,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.231922419401763</v>
+        <v>1.20826180976645</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.702481916048951</v>
@@ -24217,7 +24019,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.21386162012983</v>
+        <v>1.188531888156251</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.930664211273633</v>
@@ -24306,7 +24108,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.219923217333561</v>
+        <v>1.192291128687646</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.908602304291486</v>
@@ -24395,7 +24197,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.239070753593684</v>
+        <v>1.207231641396239</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.902285883986226</v>
@@ -24484,7 +24286,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.239859306729456</v>
+        <v>1.212190326062708</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.899161510917371</v>
@@ -24573,7 +24375,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.230176397620768</v>
+        <v>1.20289663056913</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.905289347174552</v>
@@ -24662,7 +24464,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.205051543400212</v>
+        <v>1.181723321291284</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.908671590616686</v>
@@ -24751,7 +24553,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.19933072040359</v>
+        <v>1.174484118228668</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.838701217837162</v>
@@ -24840,7 +24642,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.207578311621387</v>
+        <v>1.183437210870692</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.858204822243871</v>
@@ -24929,7 +24731,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.211150257717888</v>
+        <v>1.187324253625546</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.943086150087904</v>
@@ -25018,7 +24820,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.213136767356685</v>
+        <v>1.189194376165218</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.889870619261827</v>
@@ -25107,7 +24909,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.227394577959356</v>
+        <v>1.203190569389544</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.907185835023577</v>
@@ -25196,7 +24998,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.250973221367534</v>
+        <v>1.226422315445589</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.883057886449938</v>
@@ -25285,7 +25087,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.237493923793584</v>
+        <v>1.211045108744484</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.892126604142162</v>
@@ -25374,7 +25176,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.219229100561511</v>
+        <v>1.191777209166297</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.922228583948699</v>
@@ -25463,7 +25265,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.22724292979881</v>
+        <v>1.196410127688655</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.967878533153564</v>
@@ -25552,7 +25354,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.226835192015425</v>
+        <v>1.206081123229361</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.887814133989795</v>
@@ -25641,7 +25443,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.224836523049315</v>
+        <v>1.207381182553174</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.902063161932322</v>
@@ -25730,7 +25532,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.226544256395697</v>
+        <v>1.209706470617613</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.888259909889988</v>
@@ -25819,7 +25621,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.229563767134302</v>
+        <v>1.213930243803581</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.899174618337723</v>
@@ -25908,7 +25710,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.244653059171441</v>
+        <v>1.228139005007337</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.875213540009974</v>
@@ -25997,7 +25799,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.287928948726387</v>
+        <v>1.269033735912645</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.800092362588281</v>
@@ -26086,7 +25888,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.351446493321812</v>
+        <v>1.333750091097459</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.80057914916792</v>
@@ -26175,7 +25977,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.327957203502651</v>
+        <v>1.313559308564864</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.898760892470172</v>
@@ -26264,7 +26066,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.320403524141374</v>
+        <v>1.31859260144656</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.918968164232098</v>
@@ -26353,7 +26155,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.327104920367516</v>
+        <v>1.325991921131457</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.930192035521473</v>
@@ -26442,7 +26244,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.285971947978887</v>
+        <v>1.281928542685712</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.99883106156232</v>
@@ -26531,7 +26333,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.269259569699443</v>
+        <v>1.262508827470504</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.026417236452501</v>
@@ -26620,7 +26422,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.278630882616052</v>
+        <v>1.264811353485316</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.772255872052055</v>
@@ -26709,7 +26511,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.289859992423286</v>
+        <v>1.287452146474957</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.977577255124748</v>
@@ -26798,7 +26600,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.308946973029524</v>
+        <v>1.307696194554739</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.812474697118868</v>
@@ -26887,7 +26689,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.320477911497641</v>
+        <v>1.317187763670169</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.984362031666795</v>
@@ -26976,7 +26778,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.320386808562286</v>
+        <v>1.316218177593624</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.980174637388797</v>
@@ -27065,7 +26867,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.301628175779177</v>
+        <v>1.29599395678251</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.013289536566543</v>
@@ -27154,7 +26956,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.273269312315555</v>
+        <v>1.264787138075823</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.038942849061886</v>
@@ -27243,7 +27045,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.271032851537155</v>
+        <v>1.264198478139787</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.054091928064577</v>
@@ -27332,7 +27134,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.262942629570534</v>
+        <v>1.253000041545021</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.074243160728454</v>
@@ -27421,7 +27223,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.265551765421674</v>
+        <v>1.254109664228972</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.900088221423813</v>
@@ -27510,7 +27312,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.282774116226362</v>
+        <v>1.267817932692754</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.871350439741775</v>
@@ -27599,7 +27401,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.287216850393645</v>
+        <v>1.270210376106416</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.971188869846616</v>
@@ -27688,7 +27490,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.242312311976095</v>
+        <v>1.219312533120865</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.963356837685368</v>
@@ -27777,7 +27579,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.256307000474921</v>
+        <v>1.235635716454433</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.972813917390023</v>
@@ -27866,7 +27668,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.276699493023225</v>
+        <v>1.252111761187204</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.853955784737219</v>
@@ -27955,7 +27757,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.282463472450402</v>
+        <v>1.266491843054193</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.990309776262607</v>
@@ -28044,7 +27846,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.285260532270267</v>
+        <v>1.268568514824054</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.989658785428425</v>
@@ -28133,7 +27935,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.286075807171036</v>
+        <v>1.268167761722203</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.004928101452229</v>
@@ -28222,7 +28024,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.288187436741102</v>
+        <v>1.271107606529176</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.988239030209015</v>
@@ -28311,7 +28113,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.290927352607442</v>
+        <v>1.273506074814775</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.964129565875044</v>
@@ -28400,7 +28202,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.309310746107232</v>
+        <v>1.292745101778269</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.945790925400037</v>
@@ -28489,7 +28291,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.300905577505121</v>
+        <v>1.278303927028635</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.008216373612536</v>
@@ -28578,7 +28380,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.296402859930149</v>
+        <v>1.277272312682963</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.013153219583078</v>
@@ -28667,7 +28469,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.308778182963401</v>
+        <v>1.293088776147763</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.992106416278794</v>
@@ -28756,7 +28558,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.284029305897829</v>
+        <v>1.267763820804158</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.983671698011138</v>
@@ -28845,7 +28647,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.262655164434347</v>
+        <v>1.247117194652515</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.022533365104466</v>
@@ -28934,7 +28736,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.255059071256566</v>
+        <v>1.241046106511428</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.848563498072266</v>
@@ -29023,7 +28825,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.283493526347419</v>
+        <v>1.270518847292991</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.914629990381568</v>
@@ -29112,7 +28914,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.303720288864638</v>
+        <v>1.289243553512623</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.914579839753295</v>
@@ -29398,7 +29200,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.329496320083271</v>
+        <v>1.305255568708127</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.983721188561034</v>
@@ -29487,7 +29289,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.298412020660344</v>
+        <v>1.272828258358593</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.978365782217624</v>
@@ -29576,7 +29378,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.277330926621902</v>
+        <v>1.25530431593639</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.033815139183957</v>
@@ -29665,7 +29467,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.245095153979052</v>
+        <v>1.218383613746204</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.067688488584813</v>
@@ -29754,7 +29556,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.23814475437861</v>
+        <v>1.20639736485826</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.087138358147694</v>
@@ -29843,7 +29645,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.210975338773505</v>
+        <v>1.182362374202485</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.086437890507729</v>
@@ -29932,7 +29734,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.20418432092129</v>
+        <v>1.17644545049133</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.095963179085891</v>
@@ -30021,7 +29823,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.195633847464073</v>
+        <v>1.169654755690475</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.1066936338034</v>
@@ -30110,7 +29912,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.199205493741405</v>
+        <v>1.172266490443823</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.1059736536056</v>
@@ -30199,7 +30001,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.205089276660295</v>
+        <v>1.176257843406135</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.074274393480313</v>
@@ -30288,7 +30090,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.213484717020052</v>
+        <v>1.184025714278421</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.085139177966863</v>
@@ -30377,7 +30179,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.214944274430585</v>
+        <v>1.186210057543744</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.094436985743556</v>
@@ -30466,7 +30268,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.201606945934169</v>
+        <v>1.173150248633445</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.102645922170285</v>
@@ -30555,7 +30357,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.209523080294963</v>
+        <v>1.186082509323528</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.013889849825969</v>
@@ -30644,7 +30446,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.208877082203484</v>
+        <v>1.184233999272049</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.064910099344871</v>
@@ -30733,7 +30535,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.207608732417166</v>
+        <v>1.182168034398864</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.064231025585686</v>
@@ -30822,7 +30624,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.204056758369416</v>
+        <v>1.178868733229346</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.025665249244172</v>
@@ -30911,7 +30713,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.212020406032728</v>
+        <v>1.185546989378719</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.01258505771322</v>
@@ -31000,7 +30802,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.230121449262194</v>
+        <v>1.202816080907932</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.736267573585537</v>
@@ -31089,7 +30891,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.24889728563944</v>
+        <v>1.225546716306071</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.727699421718155</v>
@@ -31178,7 +30980,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.229556829296024</v>
+        <v>1.205433440832311</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.962598881888316</v>
@@ -31267,7 +31069,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.235707902159894</v>
+        <v>1.2097672468537</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.934784624365722</v>
@@ -31356,7 +31158,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.254386888720933</v>
+        <v>1.22357081823492</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.919761714220751</v>
@@ -31445,7 +31247,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.254578811384657</v>
+        <v>1.226319523273128</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.925174532482879</v>
@@ -31534,7 +31336,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.243580841210389</v>
+        <v>1.219339723925403</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.931360372627171</v>
@@ -31623,7 +31425,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.21488304545048</v>
+        <v>1.194032178613154</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.911723681519338</v>
@@ -31712,7 +31514,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.208273073306567</v>
+        <v>1.185352827577704</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.858708631423348</v>
@@ -31801,7 +31603,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.216321751902959</v>
+        <v>1.194066037390376</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.869159461092781</v>
@@ -31890,7 +31692,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.217717328979868</v>
+        <v>1.193050145224684</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.944557835043522</v>
@@ -31979,7 +31781,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.22065701819913</v>
+        <v>1.194711338501104</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.898704862012381</v>
@@ -32068,7 +31870,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.236666241927597</v>
+        <v>1.210366257739822</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.922533711009863</v>
@@ -32157,7 +31959,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.263197747036668</v>
+        <v>1.238219810828038</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.888265687875286</v>
@@ -32246,7 +32048,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.251010453719964</v>
+        <v>1.226161474281706</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.90390438031942</v>
@@ -32335,7 +32137,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.231619773820794</v>
+        <v>1.207715515744094</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.936415995217403</v>
@@ -32424,7 +32226,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.240701436473552</v>
+        <v>1.211565221237646</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.994374859415986</v>
@@ -32513,7 +32315,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.24314935874082</v>
+        <v>1.224296322379246</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.909069323686772</v>
@@ -32602,7 +32404,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.241364984606129</v>
+        <v>1.226546957571632</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.902940152530497</v>
@@ -32691,7 +32493,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.240174272838721</v>
+        <v>1.227112335262752</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.901009740928019</v>
@@ -32780,7 +32582,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.241682372959125</v>
+        <v>1.229075306296298</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.918930448439691</v>
@@ -32869,7 +32671,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.25907951427892</v>
+        <v>1.244804903854592</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.893563596948411</v>
@@ -32958,7 +32760,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.300092583661842</v>
+        <v>1.284861454507132</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.820973541268875</v>
@@ -33047,7 +32849,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.353077282680862</v>
+        <v>1.340735726473557</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.813855616476502</v>
@@ -33136,7 +32938,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.31949494155002</v>
+        <v>1.306684471523232</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.885805886130895</v>
@@ -33225,7 +33027,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.312411077869478</v>
+        <v>1.31025761144884</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.920335585028177</v>
@@ -33314,7 +33116,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.315146659363716</v>
+        <v>1.312941798788162</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.913470080187024</v>
@@ -33403,7 +33205,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.273606254045289</v>
+        <v>1.268151308330342</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.981940087785668</v>
@@ -33492,7 +33294,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.256027174075142</v>
+        <v>1.245654158856888</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.00452833254944</v>
@@ -33581,7 +33383,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.268562696952315</v>
+        <v>1.249341009212092</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.751696460495203</v>
@@ -33670,7 +33472,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.274742763014234</v>
+        <v>1.265077414295057</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.959763534437703</v>
@@ -33759,7 +33561,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.290300628898124</v>
+        <v>1.282244740805698</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.814543028249568</v>
@@ -33848,7 +33650,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.302750650942655</v>
+        <v>1.292554196207377</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.957912139379582</v>
@@ -33937,7 +33739,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.299690129483424</v>
+        <v>1.28797639757551</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.973442798992544</v>
@@ -34026,7 +33828,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.285976569792694</v>
+        <v>1.273181235481589</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.012032852090787</v>
@@ -34115,7 +33917,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.259782743331582</v>
+        <v>1.244741907795087</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.035548431056203</v>
@@ -34204,7 +34006,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.253747317909662</v>
+        <v>1.238314735277498</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.0491657162821</v>
@@ -34293,7 +34095,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.248668415289054</v>
+        <v>1.23055673400029</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.058984535361405</v>
@@ -34382,7 +34184,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.261673582290643</v>
+        <v>1.243044955650328</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.895177790829397</v>
@@ -34471,7 +34273,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.289563700840099</v>
+        <v>1.268608047607231</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.899374695129251</v>
@@ -34560,7 +34362,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.294836873200569</v>
+        <v>1.273986651790217</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.00993623601825</v>
@@ -34649,7 +34451,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.252015211442546</v>
+        <v>1.228237828865897</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.976874748227429</v>
@@ -34738,7 +34540,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.265761048177756</v>
+        <v>1.243231364207694</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.988805268572142</v>
@@ -34827,7 +34629,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.282874518016845</v>
+        <v>1.25698761032493</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.870511891153864</v>
@@ -34916,7 +34718,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.289131619868408</v>
+        <v>1.273235115288503</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.012962388412463</v>
@@ -35005,7 +34807,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.290568888872705</v>
+        <v>1.275119622951489</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.01029447727124</v>
@@ -35094,7 +34896,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.291347695923055</v>
+        <v>1.276304269575259</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.021140429373038</v>
@@ -35183,7 +34985,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.294003128446641</v>
+        <v>1.278315414928784</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.012410323217302</v>
@@ -35272,7 +35074,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.295927877764149</v>
+        <v>1.278778093186467</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.996652046893232</v>
@@ -35361,7 +35163,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.312146903271387</v>
+        <v>1.294794123234721</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.95000594769114</v>
@@ -35450,7 +35252,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.30547276757025</v>
+        <v>1.282777791220391</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.978862594468801</v>
@@ -35539,7 +35341,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.303028798838791</v>
+        <v>1.284346889101752</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.014196686017257</v>
@@ -35628,7 +35430,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.314691027463446</v>
+        <v>1.297655276218427</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.002570027162595</v>
@@ -35717,7 +35519,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.287980837390283</v>
+        <v>1.27066287227604</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.991765162516145</v>
@@ -35806,7 +35608,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.263422009119533</v>
+        <v>1.247286205029477</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.022477433173672</v>
@@ -35895,7 +35697,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.256130707470701</v>
+        <v>1.241571508066506</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.856500537972636</v>
@@ -35984,7 +35786,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.283674477680839</v>
+        <v>1.268705292185718</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.921067344257849</v>
@@ -36073,7 +35875,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.303217606103277</v>
+        <v>1.285373844889077</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.928246025617248</v>
@@ -36359,7 +36161,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.246946221550026</v>
+        <v>1.224046788325333</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.866153135935203</v>
@@ -36448,7 +36250,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.221757416399846</v>
+        <v>1.196077529787441</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.874822088206164</v>
@@ -36537,7 +36339,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.200154916363024</v>
+        <v>1.180190984775209</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.913387317947314</v>
@@ -36626,7 +36428,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.181468276576168</v>
+        <v>1.15502097952893</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.971824711923594</v>
@@ -36715,7 +36517,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.191072982865914</v>
+        <v>1.161997093000234</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.000073153902648</v>
@@ -36804,7 +36606,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.16564288872417</v>
+        <v>1.13929967647977</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.015760466535514</v>
@@ -36893,7 +36695,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.159151247369019</v>
+        <v>1.133163335213931</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.028943200839532</v>
@@ -36982,7 +36784,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.152690607797566</v>
+        <v>1.127647614361</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.047012098587488</v>
@@ -37071,7 +36873,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.152262751751324</v>
+        <v>1.12762796253256</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.032535253652289</v>
@@ -37160,7 +36962,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.159816574887454</v>
+        <v>1.135164947244372</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.006573507918314</v>
@@ -37249,7 +37051,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.166139304049589</v>
+        <v>1.142524235734279</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.002258291688849</v>
@@ -37338,7 +37140,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.168739094756484</v>
+        <v>1.145073750802694</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.004955618141141</v>
@@ -37427,7 +37229,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.160322760671589</v>
+        <v>1.133856982607912</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.012571596558806</v>
@@ -37516,7 +37318,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.159369266212936</v>
+        <v>1.136271871444783</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.939742123726547</v>
@@ -37605,7 +37407,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.158170212182651</v>
+        <v>1.133716929390428</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.979935751768042</v>
@@ -37694,7 +37496,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.15676165226855</v>
+        <v>1.1314637077882</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.992376929851119</v>
@@ -37783,7 +37585,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.15506593780408</v>
+        <v>1.129373664961383</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.948908786846336</v>
@@ -37872,7 +37674,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.157228556100466</v>
+        <v>1.13199990646091</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.922401570185653</v>
@@ -37961,7 +37763,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.16107513621993</v>
+        <v>1.135016526602721</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.660267109305279</v>
@@ -38050,7 +37852,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.15986476782766</v>
+        <v>1.141034762786938</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.616038172729121</v>
@@ -38139,7 +37941,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.150599511542055</v>
+        <v>1.128521427496954</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.826372712489523</v>
@@ -38228,7 +38030,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.151411174811131</v>
+        <v>1.127977257727131</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.80753624458942</v>
@@ -38317,7 +38119,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.163889814465371</v>
+        <v>1.135915999830462</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.780174437613495</v>
@@ -38406,7 +38208,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.163820995086296</v>
+        <v>1.137145598497276</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.782592331331087</v>
@@ -38495,7 +38297,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.157039215350978</v>
+        <v>1.127711385435975</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.813117572681022</v>
@@ -38584,7 +38386,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.142392296956869</v>
+        <v>1.115759455027957</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.824874041020787</v>
@@ -38673,7 +38475,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.147209224076908</v>
+        <v>1.118518783283749</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.781900318610503</v>
@@ -38762,7 +38564,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.14095602637525</v>
+        <v>1.112049173228102</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.785523376314925</v>
@@ -38851,7 +38653,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.140377731424079</v>
+        <v>1.111296484338173</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.843161737191972</v>
@@ -38940,7 +38742,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.139030335958691</v>
+        <v>1.109778799527267</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.80161085708257</v>
@@ -39029,7 +38831,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.143461998684714</v>
+        <v>1.113812691406962</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.792107433437113</v>
@@ -39118,7 +38920,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.152673837361864</v>
+        <v>1.124137358531097</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.749268210365892</v>
@@ -39207,7 +39009,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.154520801634149</v>
+        <v>1.124181208638865</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.7807538593128</v>
@@ -39296,7 +39098,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.152403882954304</v>
+        <v>1.120171645231161</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.839479254518293</v>
@@ -39385,7 +39187,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.160146856083523</v>
+        <v>1.122297126110116</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.883541211021663</v>
@@ -39474,7 +39276,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.148128934964521</v>
+        <v>1.118919743093532</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.794078471036702</v>
@@ -39563,7 +39365,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.140523661809659</v>
+        <v>1.112860353604955</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.793484246050777</v>
@@ -39652,7 +39454,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.136964277493829</v>
+        <v>1.10912703723065</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.780030237820138</v>
@@ -39741,7 +39543,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.138231632947507</v>
+        <v>1.110109096999742</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.789426675667551</v>
@@ -39830,7 +39632,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.14238293784116</v>
+        <v>1.113543768738025</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.757108568844394</v>
@@ -39919,7 +39721,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.156922751052943</v>
+        <v>1.12578158091007</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.657739139653591</v>
@@ -40008,7 +39810,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.169306856980447</v>
+        <v>1.141064999847059</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.600975689142184</v>
@@ -40097,7 +39899,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.165059356315268</v>
+        <v>1.132257981885119</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.697212995029868</v>
@@ -40186,7 +39988,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.14277042777437</v>
+        <v>1.117236929954232</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.705511068221602</v>
@@ -40275,7 +40077,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.142845721118901</v>
+        <v>1.117776959828291</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.708007223038518</v>
@@ -40364,7 +40166,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.137272772977312</v>
+        <v>1.109628021293967</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.803990825071315</v>
@@ -40453,7 +40255,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.138045298821389</v>
+        <v>1.108853852908323</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.850616106877249</v>
@@ -40542,7 +40344,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.148321853706576</v>
+        <v>1.11087995389712</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.637348716175783</v>
@@ -40631,7 +40433,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.132662324480056</v>
+        <v>1.104316705954933</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.780101849338158</v>
@@ -40720,7 +40522,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.136275619231077</v>
+        <v>1.109101641079934</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.634898252108235</v>
@@ -40809,7 +40611,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.143440530043292</v>
+        <v>1.116140775818997</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.74868157215839</v>
@@ -40898,7 +40700,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.145017482595055</v>
+        <v>1.11739612735792</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.754741612698493</v>
@@ -40987,7 +40789,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.141898639961202</v>
+        <v>1.11422652204656</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.787810700722767</v>
@@ -41076,7 +40878,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.132346238475332</v>
+        <v>1.103355572614832</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.846387582034904</v>
@@ -41165,7 +40967,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.129884386768811</v>
+        <v>1.100629815433753</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.847670249627317</v>
@@ -41254,7 +41056,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.138014405606171</v>
+        <v>1.106125961181436</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.890403637719162</v>
@@ -41343,7 +41145,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.15407519646385</v>
+        <v>1.12204146345617</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.756281930236326</v>
@@ -41432,7 +41234,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.174667783812927</v>
+        <v>1.143849059990282</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.755196286211937</v>
@@ -41521,7 +41323,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.200717019292399</v>
+        <v>1.173804871570111</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.848236377246046</v>
@@ -41610,7 +41412,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.172366158285098</v>
+        <v>1.140239109200839</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.86718000747608</v>
@@ -41699,7 +41501,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.180338807374461</v>
+        <v>1.149717450269275</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.858309181861012</v>
@@ -41788,7 +41590,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.200557813528519</v>
+        <v>1.164531455048999</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.763525872904803</v>
@@ -41877,7 +41679,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.19185647564786</v>
+        <v>1.165441584985897</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.825693166537413</v>
@@ -41966,7 +41768,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.193937021282369</v>
+        <v>1.167991099595709</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.871272219591156</v>
@@ -42055,7 +41857,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.195376472179694</v>
+        <v>1.169500501029028</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.851285741993068</v>
@@ -42144,7 +41946,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.202269990810164</v>
+        <v>1.17635464006263</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.862307774036528</v>
@@ -42233,7 +42035,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.210391252583065</v>
+        <v>1.18450713578345</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.844414855652671</v>
@@ -42322,7 +42124,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.219215001905762</v>
+        <v>1.193603494498074</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.822585513170048</v>
@@ -42411,7 +42213,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.221222016900349</v>
+        <v>1.190084259650211</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.868788293729754</v>
@@ -42500,7 +42302,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.21712487767629</v>
+        <v>1.189690045914691</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.872069126083049</v>
@@ -42589,7 +42391,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.22282581786992</v>
+        <v>1.197165260465443</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.865789589139679</v>
@@ -42678,7 +42480,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.195445300967257</v>
+        <v>1.169512233521222</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.851341080048519</v>
@@ -42767,7 +42569,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.174280125880954</v>
+        <v>1.149724078627756</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.87847425380433</v>
@@ -42856,7 +42658,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.165421115416736</v>
+        <v>1.141206034491726</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.731068570481701</v>
@@ -42945,7 +42747,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.179241691713331</v>
+        <v>1.156674020662053</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.796712228675517</v>
@@ -43034,7 +42836,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.185144749820063</v>
+        <v>1.160059503438305</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.763103377459212</v>
@@ -43320,7 +43122,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.321700989971011</v>
+        <v>1.28669283680583</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.990572261082312</v>
@@ -43409,7 +43211,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.295250154102779</v>
+        <v>1.262105156104888</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.997679501338166</v>
@@ -43498,7 +43300,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.279821208413524</v>
+        <v>1.249905491809357</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.008536752931962</v>
@@ -43587,7 +43389,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.24561891947643</v>
+        <v>1.212710135655616</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.039029961969197</v>
@@ -43676,7 +43478,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.241072024643189</v>
+        <v>1.206842667879553</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.07391734304982</v>
@@ -43765,7 +43567,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.210116655831617</v>
+        <v>1.180821071651339</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.09693206789322</v>
@@ -43854,7 +43656,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.203523167656224</v>
+        <v>1.176301591354194</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.101156252277049</v>
@@ -43943,7 +43745,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.192510567646265</v>
+        <v>1.16670724818924</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.110091197303749</v>
@@ -44032,7 +43834,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.194255450436502</v>
+        <v>1.168641062191655</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.100929373747726</v>
@@ -44121,7 +43923,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.199545120314177</v>
+        <v>1.171808733345926</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.07327098960218</v>
@@ -44210,7 +44012,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.209466225485066</v>
+        <v>1.181549399374886</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.091924818923715</v>
@@ -44299,7 +44101,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.209824052920087</v>
+        <v>1.183653445152947</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.090297857929247</v>
@@ -44388,7 +44190,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.195519003023208</v>
+        <v>1.167808408586528</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.069281810670029</v>
@@ -44477,7 +44279,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.201689256241794</v>
+        <v>1.176859561075557</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.016550469100376</v>
@@ -44566,7 +44368,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.200363324513392</v>
+        <v>1.174577871874056</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.071439676293389</v>
@@ -44655,7 +44457,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.19920975144974</v>
+        <v>1.172526333127172</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.049111334409829</v>
@@ -44744,7 +44546,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.196123743216515</v>
+        <v>1.16913175018849</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.019389049988229</v>
@@ -44833,7 +44635,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.202486814380958</v>
+        <v>1.173867027057068</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.00139182213373</v>
@@ -44922,7 +44724,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.219033285129299</v>
+        <v>1.187984545329786</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.736913532198831</v>
@@ -45011,7 +44813,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.237834158516838</v>
+        <v>1.20940627648841</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.722098238501559</v>
@@ -45100,7 +44902,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.226216857882483</v>
+        <v>1.196997274599313</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.968741512455424</v>
@@ -45189,7 +44991,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.230528791061052</v>
+        <v>1.1982826405282</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.941037062541949</v>
@@ -45278,7 +45080,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.251056622325514</v>
+        <v>1.213817227042333</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.912778283545068</v>
@@ -45367,7 +45169,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.250421043744084</v>
+        <v>1.216463019255755</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.918512026532196</v>
@@ -45456,7 +45258,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.237879952239694</v>
+        <v>1.205020469799429</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.930562260772648</v>
@@ -45545,7 +45347,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.210912173373419</v>
+        <v>1.181686414290951</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.93623826592425</v>
@@ -45634,7 +45436,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.20572354489374</v>
+        <v>1.17515667032923</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.852691200443612</v>
@@ -45723,7 +45525,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.213673222738932</v>
+        <v>1.181372673796727</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.88537506254543</v>
@@ -45812,7 +45614,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.217181936995092</v>
+        <v>1.183848163889844</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.967632033441211</v>
@@ -45901,7 +45703,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.218491542116109</v>
+        <v>1.185210023562594</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.918846382094787</v>
@@ -45990,7 +45792,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.230079009982117</v>
+        <v>1.198683760869078</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.910628524630779</v>
@@ -46079,7 +45881,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.254072419784155</v>
+        <v>1.222961854903168</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.898897234293567</v>
@@ -46168,7 +45970,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.245883507590483</v>
+        <v>1.214661196968061</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.932735901368256</v>
@@ -46257,7 +46059,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.22640026353137</v>
+        <v>1.197789416474423</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.950776546894809</v>
@@ -46346,7 +46148,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.233505508725658</v>
+        <v>1.199249609543764</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.996764523401666</v>
@@ -46435,7 +46237,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.233353043181294</v>
+        <v>1.20752959515231</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.94955699797361</v>
@@ -46524,7 +46326,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.232432395051126</v>
+        <v>1.207569462694295</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.928187402624101</v>
@@ -46613,7 +46415,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.225264094263973</v>
+        <v>1.200429639381353</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.9108740276275</v>
@@ -46702,7 +46504,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.226258494006381</v>
+        <v>1.199421376061098</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.932726717100117</v>
@@ -46791,7 +46593,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.250097901280042</v>
+        <v>1.224326556717836</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.927186481575815</v>
@@ -46880,7 +46682,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.289177743283349</v>
+        <v>1.264660711991763</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.814525779507124</v>
@@ -46969,7 +46771,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.339458702077585</v>
+        <v>1.318658422187938</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.832080763129994</v>
@@ -47058,7 +46860,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.311977512491546</v>
+        <v>1.289728760136045</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.932701423098611</v>
@@ -47147,7 +46949,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.295488971700935</v>
+        <v>1.28395838740398</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.934909421381341</v>
@@ -47236,7 +47038,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.299378221974968</v>
+        <v>1.288362108235666</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.937222041700422</v>
@@ -47325,7 +47127,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.261380218093949</v>
+        <v>1.247870272952288</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.99749745216432</v>
@@ -47414,7 +47216,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.244371178019364</v>
+        <v>1.228314463983344</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.044663825551841</v>
@@ -47503,7 +47305,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.254878395119607</v>
+        <v>1.230798987626536</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.761159339693422</v>
@@ -47592,7 +47394,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.262472415586176</v>
+        <v>1.247225098316201</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.971838639913923</v>
@@ -47681,7 +47483,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.278606546316686</v>
+        <v>1.264139356448104</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.832631173239952</v>
@@ -47770,7 +47572,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.283368762463159</v>
+        <v>1.267552181009928</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.985044520236398</v>
@@ -47859,7 +47661,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.286157491047083</v>
+        <v>1.269915369050549</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.992522950026147</v>
@@ -47948,7 +47750,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.27307687418456</v>
+        <v>1.258358902470201</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.022744098848444</v>
@@ -48037,7 +47839,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.25035410556362</v>
+        <v>1.234986030368237</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.056340496331135</v>
@@ -48126,7 +47928,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.23570979188592</v>
+        <v>1.217323870446406</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.034804635030777</v>
@@ -48215,7 +48017,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.22648870189891</v>
+        <v>1.203126072977292</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.053833767844679</v>
@@ -48304,7 +48106,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.233712608873039</v>
+        <v>1.208775706547321</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.887479610735695</v>
@@ -48393,7 +48195,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.257242482428156</v>
+        <v>1.231666329320317</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.928564493634753</v>
@@ -48482,7 +48284,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.268956419890095</v>
+        <v>1.243437220487842</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.990250353987753</v>
@@ -48571,7 +48373,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.234271351113085</v>
+        <v>1.20369771508316</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.996946317918895</v>
@@ -48660,7 +48462,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.244025120702597</v>
+        <v>1.216876751570449</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.997293118823255</v>
@@ -48749,7 +48551,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.26266353947302</v>
+        <v>1.23260132985205</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.874792246294408</v>
@@ -48838,7 +48640,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.263194937099169</v>
+        <v>1.241278764213564</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.987760722553405</v>
@@ -48927,7 +48729,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.264449601606042</v>
+        <v>1.245113014830273</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.008749448568187</v>
@@ -49016,7 +48818,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.263342903932982</v>
+        <v>1.244105016673748</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.006132010277457</v>
@@ -49105,7 +48907,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.271389257540762</v>
+        <v>1.25177759402213</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.008110516095858</v>
@@ -49194,7 +48996,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.271463412829718</v>
+        <v>1.253648799736786</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.992862608737028</v>
@@ -49283,7 +49085,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.292021601103784</v>
+        <v>1.277000121810428</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.959656944423774</v>
@@ -49372,7 +49174,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.285875161101889</v>
+        <v>1.266515014615538</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.011891755763796</v>
@@ -49461,7 +49263,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.287703174524345</v>
+        <v>1.273320530689471</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.023874485172309</v>
@@ -49550,7 +49352,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.298588371269855</v>
+        <v>1.286192929185409</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.006101889006018</v>
@@ -49639,7 +49441,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.275529492704863</v>
+        <v>1.265193120333552</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.998892098049412</v>
@@ -49728,7 +49530,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.255842354633247</v>
+        <v>1.246778005712448</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.995157183659877</v>
@@ -49817,7 +49619,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.249064807373416</v>
+        <v>1.241991173770121</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.839499866836571</v>
@@ -49906,7 +49708,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.271813922253456</v>
+        <v>1.264965869253595</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.9279186121923</v>
@@ -49995,7 +49797,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.293595904568226</v>
+        <v>1.284651398047053</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.946908572654846</v>
